--- a/designs.xlsx
+++ b/designs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wraith\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32d58b98aafa3dea/Documents/GitHub/GA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F7938D-0DF9-4239-919E-7F3ACDA2F7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{93F7938D-0DF9-4239-919E-7F3ACDA2F7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6035868B-1D18-407A-820D-43617F93BA3D}"/>
   <bookViews>
-    <workbookView xWindow="10886" yWindow="0" windowWidth="11143" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>N</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>baffle cut</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
@@ -375,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +405,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -425,8 +431,11 @@
       <c r="G2">
         <v>0.2</v>
       </c>
+      <c r="H2">
+        <v>21.568999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -448,8 +457,11 @@
       <c r="G3">
         <v>0.34375</v>
       </c>
+      <c r="H3">
+        <v>23.454000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -471,8 +483,11 @@
       <c r="G4">
         <v>0.252</v>
       </c>
+      <c r="H4">
+        <v>18.923999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -494,8 +509,11 @@
       <c r="G5">
         <v>0.30199999999999999</v>
       </c>
+      <c r="H5">
+        <v>21.308</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -516,6 +534,9 @@
       </c>
       <c r="G6">
         <v>0.25</v>
+      </c>
+      <c r="H6">
+        <v>21.038</v>
       </c>
     </row>
   </sheetData>

--- a/designs.xlsx
+++ b/designs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32d58b98aafa3dea/Documents/GitHub/GA3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wraith\Desktop\GA3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{93F7938D-0DF9-4239-919E-7F3ACDA2F7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6035868B-1D18-407A-820D-43617F93BA3D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBC0596-4CE5-43A3-BBE6-FBC9C09DE2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10886" yWindow="0" windowWidth="11143" windowHeight="6583" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>N</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>Q_predict</t>
+  </si>
+  <si>
+    <t>Q_test</t>
   </si>
 </sst>
 </file>
@@ -96,8 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -434,8 +443,11 @@
       <c r="H2">
         <v>21.568999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -460,8 +472,9 @@
       <c r="H3">
         <v>23.454000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -486,8 +499,9 @@
       <c r="H4">
         <v>18.923999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -512,8 +526,9 @@
       <c r="H5">
         <v>21.308</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -538,8 +553,192 @@
       <c r="H6">
         <v>21.038</v>
       </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.216</v>
+      </c>
+      <c r="H8">
+        <v>10.782999999999999</v>
+      </c>
+      <c r="I8">
+        <v>10.29</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.24</v>
+      </c>
+      <c r="G9">
+        <v>0.251</v>
+      </c>
+      <c r="H9">
+        <v>7.78</v>
+      </c>
+      <c r="I9">
+        <v>7.29</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.25</v>
+      </c>
+      <c r="H10">
+        <v>16.611000000000001</v>
+      </c>
+      <c r="I10">
+        <v>8.92</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.24</v>
+      </c>
+      <c r="G11">
+        <v>0.25</v>
+      </c>
+      <c r="H11">
+        <v>9.4179999999999993</v>
+      </c>
+      <c r="I11">
+        <v>11.45</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="H12">
+        <v>9.2070000000000007</v>
+      </c>
+      <c r="I12">
+        <v>8.74</v>
+      </c>
+      <c r="J12" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="J8:J12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/designs.xlsx
+++ b/designs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wraith\Desktop\GA3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBC0596-4CE5-43A3-BBE6-FBC9C09DE2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B0241A-3A40-45F9-8371-68659EDAC71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10886" yWindow="0" windowWidth="11143" windowHeight="6583" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>N</t>
   </si>
@@ -60,13 +60,13 @@
     <t>baffle cut</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>Q_predict</t>
   </si>
   <si>
     <t>Q_test</t>
+  </si>
+  <si>
+    <t>Groups</t>
   </si>
 </sst>
 </file>
@@ -387,357 +387,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>0.23599999999999999</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.2</v>
       </c>
-      <c r="H2">
-        <v>21.568999999999999</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2025</v>
+      <c r="I2">
+        <v>12.746</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
       <c r="D3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.246</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.34375</v>
       </c>
-      <c r="H3">
-        <v>23.454000000000001</v>
-      </c>
-      <c r="J3" s="1"/>
+      <c r="I3">
+        <v>12.933999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>0.183</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.252</v>
       </c>
-      <c r="H4">
-        <v>18.923999999999999</v>
-      </c>
-      <c r="J4" s="1"/>
+      <c r="I4">
+        <v>11.164999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>0.255</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H5">
-        <v>21.308</v>
-      </c>
-      <c r="J5" s="1"/>
+      <c r="I5">
+        <v>12.763999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>0.25</v>
       </c>
       <c r="H6">
-        <v>21.038</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <v>12.452999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>2025</v>
+      </c>
       <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.216</v>
+      </c>
+      <c r="I7">
+        <v>10.782999999999999</v>
+      </c>
+      <c r="J7">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0.24</v>
+      </c>
+      <c r="H8">
+        <v>0.251</v>
+      </c>
+      <c r="I8">
+        <v>7.78</v>
+      </c>
+      <c r="J8">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.25</v>
+      </c>
+      <c r="I9">
+        <v>8.6969999999999992</v>
+      </c>
+      <c r="J9">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0.24</v>
+      </c>
+      <c r="H10">
+        <v>0.25</v>
+      </c>
+      <c r="I10">
+        <v>9.4179999999999993</v>
+      </c>
+      <c r="J10">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="G8">
-        <v>0.216</v>
-      </c>
-      <c r="H8">
-        <v>10.782999999999999</v>
-      </c>
-      <c r="I8">
-        <v>10.29</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.24</v>
-      </c>
-      <c r="G9">
-        <v>0.251</v>
-      </c>
-      <c r="H9">
-        <v>7.78</v>
-      </c>
-      <c r="I9">
-        <v>7.29</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="G10">
-        <v>0.25</v>
-      </c>
-      <c r="H10">
-        <v>16.611000000000001</v>
-      </c>
-      <c r="I10">
-        <v>8.92</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.24</v>
-      </c>
       <c r="G11">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="H11">
-        <v>9.4179999999999993</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="I11">
-        <v>11.45</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G12">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="H12">
         <v>9.2070000000000007</v>
       </c>
-      <c r="I12">
+      <c r="J11">
         <v>8.74</v>
       </c>
-      <c r="J12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
   </mergeCells>
+  <conditionalFormatting sqref="I2:I6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/designs.xlsx
+++ b/designs.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wraith\Desktop\GA3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32d58b98aafa3dea/Documents/GitHub/GA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B0241A-3A40-45F9-8371-68659EDAC71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{75B0241A-3A40-45F9-8371-68659EDAC71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16C536B0-F65D-448A-82AA-C6A35AEB722B}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>N</t>
   </si>
@@ -67,6 +78,9 @@
   </si>
   <si>
     <t>Groups</t>
+  </si>
+  <si>
+    <t>% error</t>
   </si>
 </sst>
 </file>
@@ -102,11 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,15 +402,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -423,10 +441,13 @@
       <c r="J1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -453,7 +474,7 @@
         <v>12.746</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>6</v>
@@ -480,7 +501,7 @@
         <v>12.933999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>7</v>
@@ -507,7 +528,7 @@
         <v>11.164999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>8</v>
@@ -534,7 +555,7 @@
         <v>12.763999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>9</v>
@@ -561,9 +582,9 @@
         <v>12.452999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -592,8 +613,12 @@
       <c r="J7">
         <v>10.29</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="2">
+        <f>(ABS(I7-J7)/J7)*100</f>
+        <v>4.7910592808552028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>6</v>
@@ -622,8 +647,12 @@
       <c r="J8">
         <v>7.29</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="2">
+        <f t="shared" ref="K8:K11" si="0">(ABS(I8-J8)/J8)*100</f>
+        <v>6.7215363511659838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>7</v>
@@ -652,8 +681,12 @@
       <c r="J9">
         <v>8.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -682,8 +715,12 @@
       <c r="J10">
         <v>11.45</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>17.746724890829697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>9</v>
@@ -711,6 +748,10 @@
       </c>
       <c r="J11">
         <v>8.74</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3432494279176259</v>
       </c>
     </row>
   </sheetData>
